--- a/Flask/input.xlsx
+++ b/Flask/input.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
-  <si>
-    <t>class-map match-any EGRESS-VOICE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+  <si>
+    <t>class-map match-any egress-voice</t>
   </si>
   <si>
     <t>class-map type qos match-any QOS-INGRESS-VOICE</t>
@@ -33,13 +33,13 @@
   description default class</t>
   </si>
   <si>
-    <t>class-map match-any EGRESS-CONTROL</t>
+    <t>class-map match-any egress-control</t>
   </si>
   <si>
     <t>class-map type qos match-any QOS-INGRESS-CONTROL</t>
   </si>
   <si>
-    <t xml:space="preserve">   match dscp cs6</t>
+    <t>match dscp cs6</t>
   </si>
   <si>
     <t xml:space="preserve">  match dscp 48
@@ -58,7 +58,7 @@
   description default class</t>
   </si>
   <si>
-    <t>class-map match-any EGRESS-SIGNALING</t>
+    <t>class-map match-any egress-signaling</t>
   </si>
   <si>
     <t>class-map type qos match-any QOS-INGRESS-SIGNALING</t>
@@ -75,7 +75,7 @@
   description default class</t>
   </si>
   <si>
-    <t>class-map match-any EGRESS-VIDEO</t>
+    <t>class-map match-any egress-video</t>
   </si>
   <si>
     <t>class-map type qos match-any QOS-INGRESS-VIDEO</t>
@@ -100,73 +100,220 @@
   description default class</t>
   </si>
   <si>
+    <t>policy-map egress-queing</t>
+  </si>
+  <si>
+    <t>policy-map type queuing EGRESS_QUEUING</t>
+  </si>
+  <si>
+    <t>class EGRESS-VOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q7</t>
+  </si>
+  <si>
+    <t>priority level 1 percent 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    priority level 1</t>
+  </si>
+  <si>
+    <t>queue-buffers ratio 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    shape min 1 gbps max 1 gbps</t>
+  </si>
+  <si>
+    <t>class egress-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q6</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       bandwidth remaining percent 5</t>
+  </si>
+  <si>
+    <t>class egress-viedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q5</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bandwidth remaining percent 30</t>
+  </si>
+  <si>
+    <t>class egress-signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bandwidth remaining percent 5</t>
+  </si>
+  <si>
+    <t>class class-default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q-default</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      bandwidth remaining percent 50</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-video</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-VIDEO</t>
+  </si>
+  <si>
+    <t>match dscp 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp af41</t>
+  </si>
+  <si>
+    <t>match dscp 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp af42</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-voice</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-VOICE</t>
+  </si>
+  <si>
+    <t>match dscp 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp ef</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-signaling</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-SIGNALING</t>
+  </si>
+  <si>
+    <t>match dscp 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp cs3</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-control</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-CONTROL</t>
+  </si>
+  <si>
+    <t>match dscp 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp cs6</t>
+  </si>
+  <si>
+    <t>match dscp 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp cs7</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-default</t>
+  </si>
+  <si>
+    <t>description default class</t>
+  </si>
+  <si>
+    <t>policy-map type qos ingress-classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class qos-ingress-voice </t>
+  </si>
+  <si>
+    <t>set qos-group 7</t>
+  </si>
+  <si>
+    <t>class qos-ingress-control</t>
+  </si>
+  <si>
+    <t>set qos-group 6</t>
+  </si>
+  <si>
+    <t>class qos-ingress-signaling</t>
+  </si>
+  <si>
+    <t>set qos-group 5</t>
+  </si>
+  <si>
+    <t>class qos-ingress-video</t>
+  </si>
+  <si>
+    <t>set qos-group 4</t>
+  </si>
+  <si>
+    <t>class qos-ingress-default</t>
+  </si>
+  <si>
+    <t>set qos-group 0</t>
+  </si>
+  <si>
+    <t>policy-map type queuing egress-queing</t>
+  </si>
+  <si>
     <t>policy-map EGRESS-QUEUING</t>
   </si>
   <si>
-    <t>policy-map type queuing EGRESS_QUEUING</t>
-  </si>
-  <si>
-    <t>class EGRESS-VOICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q7</t>
-  </si>
-  <si>
-    <t>priority level 1 percent 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    priority level 1</t>
-  </si>
-  <si>
-    <t>queue-buffers ratio 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    shape min 1 gbps max 1 gbps</t>
+    <t>class type queuing c-out-8q-q7</t>
+  </si>
+  <si>
+    <t>priority level 1</t>
+  </si>
+  <si>
+    <t>shape min 1 gbps max 1 gbps</t>
+  </si>
+  <si>
+    <t>class type queuing c-out-8q-q6</t>
   </si>
   <si>
     <t>class EGRESS-CONTROL</t>
   </si>
   <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q6</t>
-  </si>
-  <si>
-    <t>bandwidth remaining percent 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       bandwidth remaining percent 5</t>
+    <t>class type queuing c-out-8q-q5</t>
   </si>
   <si>
     <t>class EGRESS-VIDEO</t>
   </si>
   <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q5</t>
-  </si>
-  <si>
-    <t>bandwidth remaining percent 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bandwidth remaining percent 30</t>
+    <t>class type queuing c-out-8q-q4</t>
   </si>
   <si>
     <t>class EGRESS-SIGNALING</t>
   </si>
   <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bandwidth remaining percent 5</t>
-  </si>
-  <si>
-    <t>class class-default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q-default</t>
-  </si>
-  <si>
-    <t>bandwidth remaining percent 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      bandwidth remaining percent 50</t>
+    <t>class type queuing c-out-8q-q3</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 0</t>
+  </si>
+  <si>
+    <t>class type queuing c-out-8q-q2</t>
+  </si>
+  <si>
+    <t>class type queuing c-out-8q-q1</t>
+  </si>
+  <si>
+    <t>class type queuing c-out-8q-q-default</t>
   </si>
 </sst>
 </file>
@@ -174,7 +321,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,16 +341,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -218,11 +377,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -235,6 +461,33 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -541,14 +794,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="64.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="64.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
@@ -775,6 +1028,334 @@
         <v>40</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
+      <c r="A48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
+      <c r="A49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
+      <c r="A50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
+      <c r="A51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flask/input.xlsx
+++ b/Flask/input.xlsx
@@ -321,7 +321,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +346,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -483,7 +489,7 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -804,7 +810,7 @@
     <col min="2" max="2" style="14" width="64.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="89.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -820,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -828,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="89.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -836,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -844,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="89.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>

--- a/Flask/input.xlsx
+++ b/Flask/input.xlsx
@@ -238,7 +238,7 @@
     <t>policy-map type qos ingress-classification</t>
   </si>
   <si>
-    <t xml:space="preserve">class qos-ingress-voice </t>
+    <t>class qos-ingress-voice</t>
   </si>
   <si>
     <t>set qos-group 7</t>
@@ -321,7 +321,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,12 +346,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -454,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -487,9 +481,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -806,11 +797,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="64.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="64.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="89.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -826,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -834,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="89.25" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -842,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -850,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="87" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="89.25" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1130,67 +1121,67 @@
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A52" s="4" t="s">
@@ -1305,46 +1296,46 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">

--- a/Flask/input.xlsx
+++ b/Flask/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>class-map match-any egress-voice</t>
   </si>
@@ -106,175 +106,178 @@
     <t>policy-map type queuing EGRESS_QUEUING</t>
   </si>
   <si>
+    <t>class egress-voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q7</t>
+  </si>
+  <si>
+    <t>priority level 1 percent 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    priority level 1</t>
+  </si>
+  <si>
+    <t>queue-buffers ratio 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    shape min 1 gbps max 1 gbps</t>
+  </si>
+  <si>
+    <t>class egress-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q6</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       bandwidth remaining percent 5</t>
+  </si>
+  <si>
+    <t>class egress-viedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q5</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bandwidth remaining percent 30</t>
+  </si>
+  <si>
+    <t>class egress-signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bandwidth remaining percent 5</t>
+  </si>
+  <si>
+    <t>class class-default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  class type queuing c-out-8q-q-default</t>
+  </si>
+  <si>
+    <t>bandwidth remaining percent 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      bandwidth remaining percent 50</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-video</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-VIDEO</t>
+  </si>
+  <si>
+    <t>match dscp 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp af41</t>
+  </si>
+  <si>
+    <t>match dscp 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp af42</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-voice</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-VOICE</t>
+  </si>
+  <si>
+    <t>match dscp 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp ef</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-signaling</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-SIGNALING</t>
+  </si>
+  <si>
+    <t>match dscp 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp cs3</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-control</t>
+  </si>
+  <si>
+    <t>class-map match-any EGRESS-CONTROL</t>
+  </si>
+  <si>
+    <t>match dscp 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp cs6</t>
+  </si>
+  <si>
+    <t>match dscp 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   match dscp cs7</t>
+  </si>
+  <si>
+    <t>class-map type qos match-any qos-ingress-default</t>
+  </si>
+  <si>
+    <t>description default class</t>
+  </si>
+  <si>
+    <t>policy-map type qos ingress-classification</t>
+  </si>
+  <si>
+    <t>class qos-ingress-voice</t>
+  </si>
+  <si>
+    <t>set qos-group 7</t>
+  </si>
+  <si>
+    <t>class qos-ingress-control</t>
+  </si>
+  <si>
+    <t>set qos-group 6</t>
+  </si>
+  <si>
+    <t>class qos-ingress-signaling</t>
+  </si>
+  <si>
+    <t>set qos-group 5</t>
+  </si>
+  <si>
+    <t>class qos-ingress-video</t>
+  </si>
+  <si>
+    <t>set qos-group 4</t>
+  </si>
+  <si>
+    <t>class qos-ingress-default</t>
+  </si>
+  <si>
+    <t>set qos-group 0</t>
+  </si>
+  <si>
+    <t>policy-map type queuing egress-queing</t>
+  </si>
+  <si>
+    <t>policy-map EGRESS-QUEUING</t>
+  </si>
+  <si>
+    <t>class type queuing c-out-8q-q7</t>
+  </si>
+  <si>
     <t>class EGRESS-VOICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q7</t>
-  </si>
-  <si>
-    <t>priority level 1 percent 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    priority level 1</t>
-  </si>
-  <si>
-    <t>queue-buffers ratio 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    shape min 1 gbps max 1 gbps</t>
-  </si>
-  <si>
-    <t>class egress-control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q6</t>
-  </si>
-  <si>
-    <t>bandwidth remaining percent 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       bandwidth remaining percent 5</t>
-  </si>
-  <si>
-    <t>class egress-viedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q5</t>
-  </si>
-  <si>
-    <t>bandwidth remaining percent 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bandwidth remaining percent 30</t>
-  </si>
-  <si>
-    <t>class egress-signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bandwidth remaining percent 5</t>
-  </si>
-  <si>
-    <t>class class-default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  class type queuing c-out-8q-q-default</t>
-  </si>
-  <si>
-    <t>bandwidth remaining percent 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      bandwidth remaining percent 50</t>
-  </si>
-  <si>
-    <t>class-map type qos match-any qos-ingress-video</t>
-  </si>
-  <si>
-    <t>class-map match-any EGRESS-VIDEO</t>
-  </si>
-  <si>
-    <t>match dscp 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   match dscp af41</t>
-  </si>
-  <si>
-    <t>match dscp 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   match dscp af42</t>
-  </si>
-  <si>
-    <t>class-map type qos match-any qos-ingress-voice</t>
-  </si>
-  <si>
-    <t>class-map match-any EGRESS-VOICE</t>
-  </si>
-  <si>
-    <t>match dscp 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   match dscp ef</t>
-  </si>
-  <si>
-    <t>class-map type qos match-any qos-ingress-signaling</t>
-  </si>
-  <si>
-    <t>class-map match-any EGRESS-SIGNALING</t>
-  </si>
-  <si>
-    <t>match dscp 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   match dscp cs3</t>
-  </si>
-  <si>
-    <t>class-map type qos match-any qos-ingress-control</t>
-  </si>
-  <si>
-    <t>class-map match-any EGRESS-CONTROL</t>
-  </si>
-  <si>
-    <t>match dscp 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   match dscp cs6</t>
-  </si>
-  <si>
-    <t>match dscp 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   match dscp cs7</t>
-  </si>
-  <si>
-    <t>class-map type qos match-any qos-ingress-default</t>
-  </si>
-  <si>
-    <t>description default class</t>
-  </si>
-  <si>
-    <t>policy-map type qos ingress-classification</t>
-  </si>
-  <si>
-    <t>class qos-ingress-voice</t>
-  </si>
-  <si>
-    <t>set qos-group 7</t>
-  </si>
-  <si>
-    <t>class qos-ingress-control</t>
-  </si>
-  <si>
-    <t>set qos-group 6</t>
-  </si>
-  <si>
-    <t>class qos-ingress-signaling</t>
-  </si>
-  <si>
-    <t>set qos-group 5</t>
-  </si>
-  <si>
-    <t>class qos-ingress-video</t>
-  </si>
-  <si>
-    <t>set qos-group 4</t>
-  </si>
-  <si>
-    <t>class qos-ingress-default</t>
-  </si>
-  <si>
-    <t>set qos-group 0</t>
-  </si>
-  <si>
-    <t>policy-map type queuing egress-queing</t>
-  </si>
-  <si>
-    <t>policy-map EGRESS-QUEUING</t>
-  </si>
-  <si>
-    <t>class type queuing c-out-8q-q7</t>
   </si>
   <si>
     <t>priority level 1</t>
@@ -1073,7 +1076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="8" t="s">
         <v>57</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -1105,55 +1108,55 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -1196,12 +1199,12 @@
         <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>22</v>
@@ -1209,7 +1212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A55" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
@@ -1225,10 +1228,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A57" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25" customFormat="1" s="1">
@@ -1249,10 +1252,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A60" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -1273,10 +1276,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A63" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25" customFormat="1" s="1">
@@ -1297,49 +1300,49 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A73" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>37</v>
